--- a/excel_routes/route_JED_CAI_threats.xlsx
+++ b/excel_routes/route_JED_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -537,36 +528,36 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>06-JAN-26</t>
+          <t>09-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>691</v>
+        <v>779</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-15</v>
+        <v>-173</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -582,36 +573,36 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>06-JAN-26</t>
+          <t>09-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>103</v>
+        <v>-173</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -627,36 +618,36 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>06-JAN-26</t>
+          <t>09-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>941</v>
+        <v>779</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>235</v>
+        <v>-173</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -677,31 +668,31 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-763</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-317</v>
+        <v>-173</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -722,31 +713,31 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-761</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-317</v>
+        <v>-173</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -767,35 +758,35 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-269</v>
+        <v>-173</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -812,31 +803,31 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-755</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-257</v>
+        <v>-151</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -857,31 +848,31 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-753</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-257</v>
+        <v>-118</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -902,22 +893,22 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-199</v>
+        <v>-117</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -947,7 +938,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -956,13 +947,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-145</v>
+        <v>-47</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -992,35 +983,35 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-672</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>998</v>
+        <v>908</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-68</v>
+        <v>-44</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1037,31 +1028,31 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1043</v>
+        <v>969</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1082,31 +1073,31 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1045</v>
+        <v>969</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1066</v>
+        <v>952</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1122,7 +1113,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>09-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1132,17 +1123,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1106</v>
+        <v>681</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1066</v>
+        <v>471</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1153,9 +1144,9 @@
       <c r="I15" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1167,27 +1158,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>635</v>
+        <v>503</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>706</v>
+        <v>526</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-71</v>
+        <v>-23</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1212,36 +1203,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>706</v>
+        <v>526</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-15</v>
+        <v>155</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1257,7 +1248,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1267,26 +1258,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>941</v>
+        <v>400</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>706</v>
+        <v>471</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>235</v>
+        <v>-71</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1302,36 +1293,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>12-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>518</v>
+        <v>599</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-8</v>
+        <v>128</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1347,7 +1338,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>12-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1357,26 +1348,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>681</v>
+        <v>400</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>155</v>
+        <v>-36</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1392,27 +1383,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-35</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1442,22 +1433,22 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-14</v>
+        <v>-71</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1487,22 +1478,22 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1527,27 +1518,27 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1</v>
+        <v>-46</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1582,7 +1573,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -1627,17 +1618,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-46</v>
+        <v>-27</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1672,17 +1663,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-46</v>
+        <v>-1</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1717,26 +1708,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1797,36 +1788,36 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>355</v>
+        <v>519</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-46</v>
+        <v>118</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1842,36 +1833,36 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-177</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1897,17 +1888,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1</v>
+        <v>-46</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>30</v>
@@ -1942,26 +1933,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Nesma Airlines NE-177</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1987,26 +1978,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2022,36 +2013,36 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>519</v>
+        <v>350</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>118</v>
+        <v>-51</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2067,36 +2058,36 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>533</v>
+        <v>350</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>132</v>
+        <v>-51</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2122,17 +2113,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-51</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2157,7 +2148,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2167,17 +2158,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-51</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>30</v>
@@ -2202,7 +2193,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2212,26 +2203,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2247,36 +2238,36 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>519</v>
+        <v>350</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>118</v>
+        <v>-51</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2292,36 +2283,36 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>533</v>
+        <v>350</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>132</v>
+        <v>-51</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2337,12 +2328,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2392,26 +2383,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>350</v>
+        <v>586</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-51</v>
+        <v>185</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2437,26 +2428,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>350</v>
+        <v>586</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-51</v>
+        <v>185</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2482,26 +2473,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>400</v>
+        <v>586</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-1</v>
+        <v>185</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2527,7 +2518,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -2562,36 +2553,36 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>185</v>
+        <v>-51</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
@@ -2607,36 +2598,36 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>586</v>
+        <v>400</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>185</v>
+        <v>-1</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2652,17 +2643,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -2697,7 +2688,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2707,26 +2698,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>185</v>
+        <v>-121</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
@@ -2747,22 +2738,22 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-51</v>
+        <v>-71</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>30</v>
@@ -2792,31 +2783,31 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>400</v>
+        <v>586</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
@@ -2837,22 +2828,22 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>EgyptAir MS-670</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>526</v>
+        <v>651</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>46</v>
@@ -2882,7 +2873,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -2891,13 +2882,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>46</v>
@@ -2932,26 +2923,26 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>350</v>
+        <v>681</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-121</v>
+        <v>210</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2967,27 +2958,27 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-71</v>
+        <v>-46</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>30</v>
@@ -3012,36 +3003,36 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>526</v>
+        <v>355</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>55</v>
+        <v>-46</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3057,36 +3048,36 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>586</v>
+        <v>374</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>115</v>
+        <v>-27</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3102,36 +3093,36 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>644</v>
+        <v>400</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>173</v>
+        <v>-1</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3147,27 +3138,27 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-670</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>651</v>
+        <v>526</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>46</v>
@@ -3192,12 +3183,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3206,13 +3197,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>681</v>
+        <v>586</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>46</v>
@@ -3237,27 +3228,27 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>46</v>
@@ -3292,26 +3283,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>355</v>
+        <v>594</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-46</v>
+        <v>193</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3327,27 +3318,27 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-27</v>
+        <v>-46</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>30</v>
@@ -3372,27 +3363,27 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-27</v>
+        <v>-46</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>30</v>
@@ -3417,12 +3408,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -3462,27 +3453,27 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>46</v>
@@ -3507,27 +3498,27 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>46</v>
@@ -3552,27 +3543,27 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>46</v>
@@ -3597,12 +3588,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -3642,36 +3633,36 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>Nesma Airlines NE-177</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>594</v>
+        <v>400</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>193</v>
+        <v>-1</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3687,27 +3678,27 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-46</v>
+        <v>-1</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>30</v>
@@ -3732,36 +3723,36 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-27</v>
+        <v>125</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3777,36 +3768,36 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>400</v>
+        <v>586</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-1</v>
+        <v>185</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J74" s="3" t="inlineStr">
         <is>
@@ -3822,36 +3813,36 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>526</v>
+        <v>368</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>125</v>
+        <v>-33</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3867,36 +3858,36 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>534</v>
+        <v>368</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>133</v>
+        <v>-33</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="inlineStr">
         <is>
@@ -3912,36 +3903,36 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>586</v>
+        <v>400</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>185</v>
+        <v>-1</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
@@ -3957,27 +3948,27 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>586</v>
+        <v>476</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>46</v>
@@ -4002,27 +3993,27 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-177</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-1</v>
+        <v>-33</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>30</v>
@@ -4047,17 +4038,17 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -4092,27 +4083,27 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>476</v>
+        <v>586</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>46</v>
@@ -4137,17 +4128,17 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -4182,7 +4173,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4192,26 +4183,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>350</v>
+        <v>586</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-51</v>
+        <v>185</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
@@ -4227,7 +4218,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4237,26 +4228,26 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>368</v>
+        <v>586</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-33</v>
+        <v>185</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J84" s="3" t="inlineStr">
         <is>
@@ -4272,27 +4263,27 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>30</v>
@@ -4317,36 +4308,36 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4362,36 +4353,36 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4407,27 +4398,27 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>46</v>
@@ -4452,17 +4443,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -4497,36 +4488,36 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>368</v>
+        <v>586</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-33</v>
+        <v>185</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4542,36 +4533,36 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-1</v>
+        <v>193</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J91" s="3" t="inlineStr">
         <is>
@@ -4587,36 +4578,36 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J92" s="3" t="inlineStr">
         <is>
@@ -4632,36 +4623,36 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J93" s="3" t="inlineStr">
         <is>
@@ -4677,36 +4668,36 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4722,36 +4713,36 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>118</v>
+        <v>-71</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4767,27 +4758,27 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>46</v>
@@ -4812,27 +4803,27 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
         <v>586</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>46</v>
@@ -4857,27 +4848,27 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>46</v>
@@ -4902,7 +4893,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -4912,26 +4903,26 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>387</v>
+        <v>681</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-14</v>
+        <v>210</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
@@ -4947,36 +4938,36 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-1</v>
+        <v>-197</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
@@ -4992,27 +4983,27 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-1</v>
+        <v>-171</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>30</v>
@@ -5037,36 +5028,36 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E102" s="2" t="n">
         <v>526</v>
       </c>
-      <c r="E102" s="2" t="n">
-        <v>401</v>
-      </c>
       <c r="F102" s="2" t="n">
-        <v>125</v>
+        <v>-157</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5082,36 +5073,36 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E103" s="2" t="n">
         <v>526</v>
       </c>
-      <c r="E103" s="2" t="n">
-        <v>401</v>
-      </c>
       <c r="F103" s="2" t="n">
-        <v>125</v>
+        <v>-157</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5127,36 +5118,36 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>586</v>
+        <v>369</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>185</v>
+        <v>-157</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5172,36 +5163,36 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>594</v>
+        <v>369</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>193</v>
+        <v>-157</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J105" s="3" t="inlineStr">
         <is>
@@ -5217,12 +5208,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -5234,10 +5225,10 @@
         <v>400</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-1</v>
+        <v>-126</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>30</v>
@@ -5262,36 +5253,36 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>185</v>
+        <v>-7</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J107" s="3" t="inlineStr">
         <is>
@@ -5307,36 +5298,36 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>586</v>
+        <v>523</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>185</v>
+        <v>-3</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3" t="inlineStr">
         <is>
@@ -5352,36 +5343,36 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J109" s="3" t="inlineStr">
         <is>
@@ -5397,27 +5388,27 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>46</v>
@@ -5442,7 +5433,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5452,17 +5443,17 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-71</v>
+        <v>-81</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>30</v>
@@ -5487,7 +5478,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5497,26 +5488,26 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>586</v>
+        <v>400</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>115</v>
+        <v>-36</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3" t="inlineStr">
         <is>
@@ -5532,7 +5523,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5542,26 +5533,26 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
@@ -5577,7 +5568,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5587,26 +5578,26 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J114" s="3" t="inlineStr">
         <is>
@@ -5622,36 +5613,36 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>586</v>
+        <v>355</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>115</v>
+        <v>-116</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J115" s="3" t="inlineStr">
         <is>
@@ -5672,31 +5663,31 @@
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-157</v>
+        <v>-71</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3" t="inlineStr">
         <is>
@@ -5717,31 +5708,31 @@
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>369</v>
+        <v>519</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-157</v>
+        <v>48</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J117" s="3" t="inlineStr">
         <is>
@@ -5762,31 +5753,31 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>393</v>
+        <v>559</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-133</v>
+        <v>88</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5807,31 +5798,31 @@
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>400</v>
+        <v>681</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>-126</v>
+        <v>210</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J119" s="3" t="inlineStr">
         <is>
@@ -5847,27 +5838,27 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>503</v>
+        <v>392</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-23</v>
+        <v>-79</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>30</v>
@@ -5892,27 +5883,27 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>523</v>
+        <v>392</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-3</v>
+        <v>-79</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>30</v>
@@ -5937,12 +5928,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -5951,22 +5942,22 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>33</v>
+        <v>-157</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -5982,12 +5973,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -5996,22 +5987,22 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>33</v>
+        <v>-157</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
@@ -6027,36 +6018,36 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>681</v>
+        <v>369</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>155</v>
+        <v>-157</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J124" s="3" t="inlineStr">
         <is>
@@ -6072,36 +6063,36 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-8</v>
+        <v>-157</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
@@ -6117,27 +6108,27 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-1</v>
+        <v>-134</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>30</v>
@@ -6162,7 +6153,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6172,17 +6163,17 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-43</v>
+        <v>-134</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>30</v>
@@ -6199,771 +6190,6 @@
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-171</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E128" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="F128" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="G128" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H128" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I128" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="F129" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="G129" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H129" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I129" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J129" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-583</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E130" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="F130" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="G130" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H130" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I130" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J130" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>SM-480</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-328</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>393</v>
-      </c>
-      <c r="E131" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F131" s="2" t="n">
-        <v>-78</v>
-      </c>
-      <c r="G131" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H131" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>SM-480</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-171</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F132" s="2" t="n">
-        <v>-71</v>
-      </c>
-      <c r="G132" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H132" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I132" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>SM-480</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E133" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F133" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="G133" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H133" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I133" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J133" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>SM-480</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-583</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E134" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F134" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="G134" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H134" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I134" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J134" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>SM-480</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-666</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>681</v>
-      </c>
-      <c r="E135" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F135" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="G135" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H135" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I135" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J135" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>SM-450</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-362</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>374</v>
-      </c>
-      <c r="E136" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F136" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G136" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H136" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>SM-450</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-328</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>393</v>
-      </c>
-      <c r="E137" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F137" s="2" t="n">
-        <v>-78</v>
-      </c>
-      <c r="G137" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H137" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I137" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>SM-450</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E138" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F138" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="G138" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H138" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I138" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J138" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>SM-450</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-577</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E139" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="F139" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="G139" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H139" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I139" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J139" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-583</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>369</v>
-      </c>
-      <c r="E140" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="F140" s="2" t="n">
-        <v>-157</v>
-      </c>
-      <c r="G140" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H140" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I140" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J140" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-362</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>374</v>
-      </c>
-      <c r="E141" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="F141" s="2" t="n">
-        <v>-152</v>
-      </c>
-      <c r="G141" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H141" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I141" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-328</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>393</v>
-      </c>
-      <c r="E142" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="F142" s="2" t="n">
-        <v>-133</v>
-      </c>
-      <c r="G142" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H142" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I142" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E143" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="F143" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G143" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H143" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I143" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J143" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-577</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E144" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G144" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H144" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I144" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J144" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
